--- a/data/financial_statements/sofp/MS.xlsx
+++ b/data/financial_statements/sofp/MS.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,2160 +593,2163 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
         <v>359298000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>390529000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>414848000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>377437000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>369506000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>349113000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>334988000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>334279000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>283858000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>309722000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>308609000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>276944000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>305424000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>298558000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>316143000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>302031000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>304056000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>328765000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>303425000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>288663000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>271189000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>268789000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>259480000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>304551000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>259411000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>285003000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>301638000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>284156000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>373977000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>346232000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>344558000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>328903000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>356923000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>361518000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>375859000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>367431000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>384372000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>368919000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>368328000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
         <v>298871000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>289241000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>291064000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>284152000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>271712000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>266980000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>274166000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>248334000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>218774000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>204263000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>223121000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>186283000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>185036000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>174282000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>168864000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>168877000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>170822000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>173827000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>175970000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>160313000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>158819000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>152556000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>144297000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>140708000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>143919000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>145992000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>133564000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>131166000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>128279000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>133008000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>125436000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>115538000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>113048000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>109817000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>106811000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>99978000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>95444000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>99044000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>92886000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>658169000000.0001</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>679770000000.0001</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>705912000000.0001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>661589000000.0001</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>641218000000.0001</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>616093000000.0001</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>609154000000.0001</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>582613000000.0001</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>502632000000.0001</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>513985000000.0001</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>531730000000.0001</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>463227000000.0001</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>490460000000.0001</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>472840000000.0001</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>485007000000.0001</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>470908000000.0001</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>474878000000.0001</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>502592000000.0001</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>479395000000.0001</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>448976000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>430008000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>421345000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>403777000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>445259000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>403330000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>430995000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>435202000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>415322000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>502256000000.0001</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>479240000000.0001</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>469994000000.0001</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>444441000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>469971000000.0001</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>471335000000.0001</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>482670000000.0001</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>467409000000.0001</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>479816000000.0001</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>467963000000.0001</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>461214000000.0001</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5">
         <v>4268000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>4419000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>6259000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>6182000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>6141000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>6108000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>5642000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>5911000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>5778000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>6019000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>6008000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>5966000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>5928000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
         <v>452457000000.0001</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>444329000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>467674000000.0001</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>477867000000.0001</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>498592000000.0001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>496487000000.0001</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>502364000000.0001</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>494892000000.0001</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>424673000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>433011000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>387073000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>402835000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>383213000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>390031000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>362762000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>358131000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>365756000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>348386000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>353685000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>377084000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>364174000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>362378000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>365480000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>342246000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>352107000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>336938000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>311742000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>311488000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>306782000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>320583000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>332943000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>330472000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>320544000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>329934000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>323574000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>339260000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>325607000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>307765000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>313630000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>24614000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>24803000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>25069000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25193000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>25346000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>25528000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>25682000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>16615000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>9228000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>9287000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>9146000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>9250000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>9350000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>9434000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>8770000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>8851000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>8920000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>9024000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>9133000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>9045000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>9081000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>9158000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>9232000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>9298000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>9331000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>9414000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>9495000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>9568000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>9656000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>9745000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>9661000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>9747000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>9643000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>9737000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>9811000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>9881000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>10105000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>10202000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>10327000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>24789000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>24874000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>23578000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>23491000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>25320000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>23697000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>21572000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>21742000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>19407000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>19080000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>19846000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>20117000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>19581000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>19654000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>19425000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>15641000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>15963000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>15873000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>16282000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>16628000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>50430000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>48135000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>53902000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>18146000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>49123000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>51526000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>51058000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>51087000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>9160000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>10005000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>10360000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>10742000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>8711000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>9651000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>9548000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>10133000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>10687000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>10795000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>10284000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
         <v>501860000000.0001</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>494006000000.0001</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>516321000000.0001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>526551000000.0001</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>549258000000.0001</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>545712000000.0001</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>549618000000.0001</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>533249000000.0001</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>453308000000.0001</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>461378000000.0001</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>416065000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>432202000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>412144000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>419119000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>390957000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>382623000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>390639000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>373283000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>379100000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>402757000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>423685000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>419671000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>428614000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>369690000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>410561000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>397878000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>372295000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>372143000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>331857000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>346515000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>359105000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>357069000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>344540000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>355233000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>348711000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>365293000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>352407000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>334728000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>340169000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>1160029000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1173776000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1222233000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1188140000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1190476000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1161805000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1158772000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1115862000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>955940000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>975363000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>947795000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>895429000000.0001</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>902604000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>891959000000.0001</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>875964000000.0001</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>853531000000.0001</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>865517000000.0001</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>875875000000.0001</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>858495000000.0001</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>851733000000.0001</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>853693000000.0001</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>841016000000.0001</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>832391000000.0001</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>814949000000.0001</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>813891000000.0001</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>828873000000.0001</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>807497000000.0001</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>787465000000.0001</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>834113000000.0001</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>825755000000.0001</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>829099000000.0001</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>801510000000.0001</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>814511000000.0001</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>826568000000.0001</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>831381000000.0001</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>832702000000.0001</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>832223000000.0001</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>802691000000.0001</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>801383000000.0001</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="V11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W11">
         <v>1087000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>916000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>1122000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>914000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>880000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>1109000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>2173000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>1982000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>3122000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>2879000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>2261000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>1760000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>1783000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>1786000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>2142000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>2333000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>2366000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>2475000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12">
         <v>229463000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>234007000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>243609000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>228685000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>240319000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>233810000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>230121000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>227437000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>192300000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>198971000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>198074000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>197834000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>202915000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>192098000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>193092000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>179559000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>191026000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>201737000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>194924000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>191510000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>198792000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>197055000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>189544000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>190513000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>194007000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>201189000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>194003000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>186626000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>193775000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>181494000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>190175000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>181069000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>181899000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>178883000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>175998000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>157125000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>152091000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>145555000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>137127000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>77587000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>84469000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>94521000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>85710000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>87734000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>89444000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>92226000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>99502000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>64463000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>71823000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>66962000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
         <v>608054000000.0001</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>610930000000.0001</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>644732000000.0001</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>619730000000.0001</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>613276000000.0001</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>595691000000.0001</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>605237000000.0001</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>568197000000.0001</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>470378000000.0001</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>482919000000.0001</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>467637000000.0001</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>422271000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>422480000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>419168000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>410289000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>402904000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>403528000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>401388000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>389118000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>389175000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>382023000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>378966000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>389953000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>381543000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>376581000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>384937000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>372406000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>368714000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>401593000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>406983000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>405034000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>393304000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>404484000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>424218000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>429955000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>450830000000.0001</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>451753000000.0001</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>427558000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>426142000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
         <v>837517000000.0001</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>844937000000.0001</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>888341000000.0001</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>848415000000.0001</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>853595000000.0001</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>829501000000.0001</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>835358000000.0001</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>795634000000.0001</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>662678000000.0001</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>681890000000.0001</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>665711000000.0001</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>620105000000.0001</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>625395000000.0001</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>611266000000.0001</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>603381000000.0001</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>582463000000.0001</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>594554000000.0001</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>603125000000.0001</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>584042000000.0001</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>580685000000.0001</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>581902000000.0001</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>576937000000.0001</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>580619000000.0001</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>572056000000.0001</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>571502000000.0001</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>587006000000.0001</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>567518000000.0001</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>557513000000.0001</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>597350000000.0001</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>591599000000.0001</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>598088000000.0001</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>576634000000.0001</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>588143000000.0001</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>604884000000.0001</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>607739000000.0001</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>610097000000.0001</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>606177000000.0001</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>575479000000.0001</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>565744000000.0001</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>220423000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>226177000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>229817000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>233127000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>229762000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>224142000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>215826000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>217079000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>203444000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>205464000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>194856000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>192627000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>193659000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>197848000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>190691000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>189662000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>190889000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>192244000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>194964000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>192582000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>191677000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>184112000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>172688000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>165716000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>163927000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>163492000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>162804000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>153768000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>160343000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>158089000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>155545000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>152772000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>152357000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>149483000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>153374000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>153575000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>157805000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>161098000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>165142000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO17">
         <v>4425000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>418463000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>410588000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>444403000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>411156000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>441162000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>430692000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>439757000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>405344000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>360268000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>370038000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>359967000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
         <v>220423000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>226177000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>229817000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>233127000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>229762000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>224142000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>215826000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>217079000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>203444000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>205464000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>194856000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>192627000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>193659000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>197848000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>190691000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>189662000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>190889000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>192244000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>194964000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>192582000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>191677000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>184112000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>172688000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>165716000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>163927000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>163492000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>162804000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>153768000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>160343000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>158089000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>155545000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>152772000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>152357000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>149483000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>153374000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>153575000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>157805000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>161098000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>169567000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>1057940000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1071114000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1118158000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>1081542000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1083357000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1053643000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1051184000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1012713000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>866122000000.0001</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>887354000000.0001</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>860567000000.0001</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>812732000000.0001</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>819054000000.0001</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>809114000000.0001</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>794072000000.0001</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>772125000000.0001</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>785443000000.0001</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>795369000000.0001</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>779006000000.0001</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>773267000000.0001</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>773579000000.0001</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>761049000000.0001</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>753307000000.0001</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>737772000000.0001</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>735429000000.0001</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>750498000000.0001</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>730322000000.0001</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>711281000000.0001</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>757693000000.0001</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>749688000000.0001</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>753633000000.0001</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>729406000000.0001</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>740500000000.0001</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>754367000000.0001</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>761113000000.0001</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>763672000000.0001</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>763982000000.0001</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>736577000000.0001</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>735311000000.0001</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>28893000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>28394000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>28007000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>28841000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>28504000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>28030000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>27406000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>25546000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>24015000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>23782000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>23428000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>23935000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>23649000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>23446000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>23178000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>23794000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>23664000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>23454000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>23260000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>23545000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>23389000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>23140000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>22880000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>23271000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>22995000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>22697000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>22526000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>24153000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>23876000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>23655000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>23355000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>24249000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>23922000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>23608000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>23364000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>24570000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>24235000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>23933000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>23661000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>8750000000</v>
-      </c>
-      <c r="C22">
-        <v>7750000000</v>
       </c>
       <c r="D22">
         <v>7750000000</v>
@@ -2650,10 +2767,10 @@
         <v>7750000000</v>
       </c>
       <c r="I22">
+        <v>7750000000</v>
+      </c>
+      <c r="J22">
         <v>9250000000</v>
-      </c>
-      <c r="J22">
-        <v>8520000000</v>
       </c>
       <c r="K22">
         <v>8520000000</v>
@@ -2698,7 +2815,7 @@
         <v>8520000000</v>
       </c>
       <c r="Y22">
-        <v>7520000000</v>
+        <v>8520000000</v>
       </c>
       <c r="Z22">
         <v>7520000000</v>
@@ -2722,36 +2839,36 @@
         <v>7520000000</v>
       </c>
       <c r="AG22">
-        <v>6020000000</v>
+        <v>7520000000</v>
       </c>
       <c r="AH22">
         <v>6020000000</v>
       </c>
       <c r="AI22">
+        <v>6020000000</v>
+      </c>
+      <c r="AJ22">
         <v>5020000000</v>
-      </c>
-      <c r="AJ22">
-        <v>3220000000</v>
       </c>
       <c r="AK22">
         <v>3220000000</v>
       </c>
       <c r="AL22">
+        <v>3220000000</v>
+      </c>
+      <c r="AM22">
         <v>2370000000</v>
-      </c>
-      <c r="AM22">
-        <v>1508000000</v>
       </c>
       <c r="AN22">
         <v>1508000000</v>
       </c>
+      <c r="AO22">
+        <v>1508000000</v>
+      </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>20000000</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C23">
         <v>20000000</v>
@@ -2867,257 +2984,257 @@
       <c r="AN23">
         <v>20000000</v>
       </c>
+      <c r="AO23">
+        <v>20000000</v>
+      </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>94055000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>92889000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>91722000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>89432000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>87099000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>84791000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>82034000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>78694000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>76061000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>74015000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>71518000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>70589000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>69071000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>67588000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>66061000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>64175000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>63330000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>61835000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>60009000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>57577000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>57554000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>56325000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>55109000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>53679000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>52545000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>51410000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>50272000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>49204000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>48746000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>48106000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>46740000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>44625000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>46573000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>45145000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>43522000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>42172000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>42237000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>41455000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>40750000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>24949000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>22436000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>19696000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>17500000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>14769000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>11198000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>8197000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>9767000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>19685000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>19693000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>19721000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>18727000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>17280000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>15799000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>14582000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>13971000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>12832000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>11650000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>10369000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>9211000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>7961000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>6691000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>6155000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>5797000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>4861000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>3626000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>3090000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>4059000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>3456000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>2816000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>2207000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>2766000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>2502000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>2305000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>2087000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>2968000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>2720000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>2566000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>2541000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3173,7 +3290,7 @@
       <c r="T26">
         <v>0</v>
       </c>
-      <c r="V26">
+      <c r="U26">
         <v>0</v>
       </c>
       <c r="W26">
@@ -3182,504 +3299,504 @@
       <c r="X26">
         <v>0</v>
       </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
         <v>93339000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>94912000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>96325000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>98848000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>99369000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>100412000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>99838000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>93899000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>81298000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>79489000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>78708000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>74177000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>75030000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>74325000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>73372000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>72886000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>71554000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>71986000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>70969000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>69946000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>71594000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>71447000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>70564000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>69657000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>70942000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>70855000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>69655000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>68664000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>68900000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>68547000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>67946000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>66084000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>67991000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>67181000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>67048000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>65810000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>65871000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>64606000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>64564000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>102089000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>102662000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>104075000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>106598000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>107119000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>108162000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>107588000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>103149000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>89818000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>88009000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>87228000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>82697000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>83550000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>82845000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>81892000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>81406000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>80074000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>80506000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>79489000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>78466000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>80114000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>79967000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>79084000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>77177000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>78462000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>78375000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>77175000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>76184000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>76420000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>76067000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>75466000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>72104000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>74011000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>72201000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>70268000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>69030000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>68241000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>66114000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>66072000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>1160029000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1173776000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1222233000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1188140000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1190476000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>1161805000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>1158772000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>1115862000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>955940000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>975363000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>947795000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>895429000000.0001</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>902604000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>891959000000.0001</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>875964000000.0001</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>853531000000.0001</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>865517000000.0001</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>875875000000.0001</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>858495000000.0001</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>851733000000.0001</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>853693000000.0001</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>841016000000.0001</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>832391000000.0001</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>814949000000.0001</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>813891000000.0001</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>828873000000.0001</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>807497000000.0001</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>787465000000.0001</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>834113000000.0001</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>825755000000.0001</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>829099000000.0001</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>801510000000.0001</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>814511000000.0001</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>826568000000.0001</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>831381000000.0001</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>832702000000.0001</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>832223000000.0001</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>802691000000.0001</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>801383000000.0001</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>1694051000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1723083000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1756153000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1772227000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1798909000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>1834370000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>1868925000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1809624000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1576448000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1576105000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>1575501000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1593974000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1623587000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>1658805000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1685996000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1699829000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>1725792000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>1749653000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1773934000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>1788087000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1812472000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1839578000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1851943000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1852482000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>1876466000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>1917509000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1938294000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1920024000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1938069000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1955655000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>1971444000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>1950980000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1958386000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>1964503000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>1971686000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>1944869000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1953351000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1959326000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1960583000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>1227000</v>
-      </c>
-      <c r="C31">
-        <v>1187000</v>
       </c>
       <c r="D31">
         <v>1187000</v>
@@ -3691,16 +3808,16 @@
         <v>1187000</v>
       </c>
       <c r="G31">
+        <v>1187000</v>
+      </c>
+      <c r="H31">
         <v>1185000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>1187000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1247000</v>
-      </c>
-      <c r="J31">
-        <v>844000</v>
       </c>
       <c r="K31">
         <v>844000</v>
@@ -3721,10 +3838,10 @@
         <v>844000</v>
       </c>
       <c r="Q31">
+        <v>844000</v>
+      </c>
+      <c r="R31">
         <v>804000</v>
-      </c>
-      <c r="R31">
-        <v>844000</v>
       </c>
       <c r="S31">
         <v>844000</v>
@@ -3745,13 +3862,13 @@
         <v>844000</v>
       </c>
       <c r="Y31">
+        <v>844000</v>
+      </c>
+      <c r="Z31">
         <v>804000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>770000</v>
-      </c>
-      <c r="AA31">
-        <v>804000</v>
       </c>
       <c r="AB31">
         <v>804000</v>
@@ -3763,381 +3880,384 @@
         <v>804000</v>
       </c>
       <c r="AE31">
+        <v>804000</v>
+      </c>
+      <c r="AF31">
         <v>770000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>804000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>744000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>632000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>77475000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>77859000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>79006000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>81405000000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>81773000000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>82634000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>81906000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>86534000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>80590000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>78722000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>78082000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>73447000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>74200000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>73411000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>73122000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>72555000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>71154000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>71482000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>70356000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>69421000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>71033000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>70809000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>69852000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>67879000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>69131000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>68961000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>67680000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>66616000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>66764000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>66322000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>65805000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>62357000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>64368000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>62464000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>60457000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>59149000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>58136000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>55912000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>55745000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33">
         <v>-61288000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-79883000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>-90510000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-58600000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>-52010000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>-35527000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>-26936000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>-17698000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>-15951000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>-32435000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>-46791000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>-84317000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>-111765000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>-100710000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>-125452000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>-112369000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>-113167000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>-136521000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>-108461000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>-96081000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-79512000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-84677000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>-86792000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>-138835000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>-95484000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>-121511000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>-138834000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>-130388000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>-213634000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>-188143000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>-189013000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>-176131000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>-204566000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>-212035000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>-222485000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>-213856000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>-226567000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>-207821000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>-203186000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34">
         <v>298010000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>310646000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>324338000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>318837000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>317496000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>313586000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>308052000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>316581000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>267907000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>277287000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>261818000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>192627000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>193659000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>197848000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>190691000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>189662000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>190889000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>192244000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>194964000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>192582000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>191677000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>184112000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>172688000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>165716000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>163927000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>163492000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>162804000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>153768000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>160343000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>158089000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>155545000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>152772000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>152357000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>149483000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>153374000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>153575000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>157805000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>161098000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>165142000000</v>
       </c>
     </row>
